--- a/producers.xlsx
+++ b/producers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markellabournaka/Documents/Enimerwtika simeiwmata kwdikas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44ED5D8D-AD4C-46F9-93CC-61CEE86A8DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{A8AFFFEE-A585-1F41-95BA-D59230E4D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58983ABA-C260-4B6C-808A-796C2D3381B8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="310">
   <si>
     <t>Α.Μ. ΑΠΕ</t>
   </si>
@@ -778,7 +778,7 @@
     <t>531PH80824</t>
   </si>
   <si>
-    <t>ΕΝ. ΚΟΙΝΟΤ. ΠΕΡ. ΕΥΘΥΝΗΣ ΑΠΟΛΛΩΝ ΗΛΕΚΤΡΟΕΝΕΡΓΕΙΑΚΗ ΚΟΖΑΝΗΣ</t>
+    <t>ΕΝ. ΚΟΙΝΟΤ. ΠΕΡ. ΕΥΘΥΝΗΣ ΑΠΟΛΛΩΝ ΗΛΕΚΤΡΟΕΝΕΡΓΕΙΑΚΗ ΚΟΖΑΝΗΣ_1</t>
   </si>
   <si>
     <t>996877818</t>
@@ -805,6 +805,9 @@
     <t>531PH80823</t>
   </si>
   <si>
+    <t>ΕΝ. ΚΟΙΝΟΤ. ΠΕΡ. ΕΥΘΥΝΗΣ ΑΠΟΛΛΩΝ ΗΛΕΚΤΡΟΕΝΕΡΓΕΙΑΚΗ ΚΟΖΑΝΗΣ_2</t>
+  </si>
+  <si>
     <t>ΑΤ ΙΔΙΟΚΤΗΣΙΑΣ ΑΦΩΝ ΨΑΛΛΙΔΑ,ΣΥΝΟΛΙΚΗΣ ΕΚΤΑΣΗΣ 12900 Τ.Μ.</t>
   </si>
   <si>
@@ -893,6 +896,78 @@
   </si>
   <si>
     <t>ΠΕΡΑΝ</t>
+  </si>
+  <si>
+    <t>641ΒΙ82328</t>
+  </si>
+  <si>
+    <t>BIOGAS ENERGY Α.Ε.</t>
+  </si>
+  <si>
+    <t>ΘΕΣΗ ΜΙΣΟΡΑΧΗ ΕΛΕΩΝΑΣ ΘΗΒΩΝ</t>
+  </si>
+  <si>
+    <t>biogasenergythiva@gmail.com</t>
+  </si>
+  <si>
+    <t>ΒΙΟΑΕΡΙΟ</t>
+  </si>
+  <si>
+    <t>GR6101601660000000180495657</t>
+  </si>
+  <si>
+    <t>644PH80127</t>
+  </si>
+  <si>
+    <t>ΑΛΩΝΙΑ, Τ.Κ. ΚΑΡΥΑΣ</t>
+  </si>
+  <si>
+    <t>iliachtidaenergy@gmail.com</t>
+  </si>
+  <si>
+    <t>644PH75331</t>
+  </si>
+  <si>
+    <t>ΚΡΑΝΙΑ, Τ.Κ. ΔΙΒΡΗΣ</t>
+  </si>
+  <si>
+    <t>611PH80190</t>
+  </si>
+  <si>
+    <t>ΕΝΕΡΓΕΙΑΚΗ ΚΟΙΝΟΤΗΤΑ ΘΕΣΣΑΛΙΚΗ ΗΛΙΑΧΤΙΔΑ</t>
+  </si>
+  <si>
+    <t>ΣΠΑΝΙΕΣ, Τ.Κ. ΣΟΦΑΔΩΝ</t>
+  </si>
+  <si>
+    <t>GR7601106140000061400816049</t>
+  </si>
+  <si>
+    <t>644PH73787</t>
+  </si>
+  <si>
+    <t>ΑΛΛΑ ΧΩΡΑΦΙΑ, Τ.Κ.ΔΙΒΡΗΣ</t>
+  </si>
+  <si>
+    <t>522SH70028</t>
+  </si>
+  <si>
+    <t>HYDROTHESS Ι.Κ.Ε.</t>
+  </si>
+  <si>
+    <t>Ζ ΘΕΣΣΑΛΟΝΚΗΣ</t>
+  </si>
+  <si>
+    <t>ΑΓΡΟΤΕΜΑΧΙΟ 458 Ν ΡΥΣΙΟ, ΘΕΡΜΗ ΘΕΣΣΑΛΟΝΙΚΗΣ</t>
+  </si>
+  <si>
+    <t>info@pk-energy.gr</t>
+  </si>
+  <si>
+    <t>GR1401722180005218115365821</t>
+  </si>
+  <si>
+    <t>HYDROTHESS</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1040,6 +1115,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1381,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1393,8 +1474,8 @@
     <col min="2" max="2" width="61.375" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
-    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
@@ -2679,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -2720,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>171</v>
       </c>
@@ -2761,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -2802,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -2843,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>195</v>
       </c>
@@ -2884,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -2925,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>213</v>
       </c>
@@ -2963,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>221</v>
       </c>
@@ -3004,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>229</v>
       </c>
@@ -3045,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>236</v>
       </c>
@@ -3086,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>245</v>
       </c>
@@ -3127,12 +3208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>247</v>
@@ -3141,7 +3222,7 @@
         <v>248</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>250</v>
@@ -3168,24 +3249,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -3194,36 +3275,36 @@
         <v>218</v>
       </c>
       <c r="J45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -3232,36 +3313,36 @@
         <v>218</v>
       </c>
       <c r="J46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D47" t="s">
         <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3270,61 +3351,334 @@
         <v>218</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="1">
         <v>28558</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" t="s">
-        <v>282</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L48" t="s">
+      <c r="K48" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="L48" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="M48">
         <v>0</v>
       </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A49" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49">
+        <v>800880836</v>
+      </c>
+      <c r="D49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" s="1">
+        <v>17672</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>996874804</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1">
+        <v>19873</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>996874804</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1">
+        <v>24669</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="23"/>
+      <c r="L51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52">
+        <v>996850542</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1">
+        <v>19810</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>996874804</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1">
+        <v>26213</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54">
+        <v>802574970</v>
+      </c>
+      <c r="D54" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H54" s="1">
+        <v>29972</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K54" t="s">
+        <v>304</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="K50:K51"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="K11:K12"/>
@@ -3350,6 +3704,12 @@
     <hyperlink ref="F45" r:id="rId15" xr:uid="{69B8A3D8-2AE7-441D-8892-5AA0ECDC88E3}"/>
     <hyperlink ref="F47" r:id="rId16" xr:uid="{E6973642-5209-46C2-A147-622D75D16B7F}"/>
     <hyperlink ref="F48" r:id="rId17" xr:uid="{48198365-4824-4ECD-AA70-6E83E4759194}"/>
+    <hyperlink ref="F49" r:id="rId18" xr:uid="{16223236-EAFA-445E-80B8-5508708FCB0D}"/>
+    <hyperlink ref="F54" r:id="rId19" xr:uid="{B598BFA3-A1CF-4FAA-9357-6254008C19BD}"/>
+    <hyperlink ref="F50" r:id="rId20" xr:uid="{C052E90E-878B-449B-806A-C7A3D6C460A3}"/>
+    <hyperlink ref="F51" r:id="rId21" xr:uid="{D64431E5-2899-48F8-97CE-52DC8324A89D}"/>
+    <hyperlink ref="F52" r:id="rId22" xr:uid="{577550F7-8506-4B34-ACF9-1249CC5BAF3C}"/>
+    <hyperlink ref="F53" r:id="rId23" xr:uid="{9846AB50-4FD5-498A-A5E9-83A348F43257}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>

--- a/producers.xlsx
+++ b/producers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markellabournaka/Documents/Enimerwtika simeiwmata kwdikas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{A8AFFFEE-A585-1F41-95BA-D59230E4D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88BE08D-210A-4A9A-BD4F-329D9FA038CE}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{A8AFFFEE-A585-1F41-95BA-D59230E4D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E937D94-5C66-4E8C-B204-39B8157C27C2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="405">
   <si>
     <t>Α.Μ. ΑΠΕ</t>
   </si>
@@ -694,9 +694,6 @@
     <t>info@medil.gr</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>GR7501722670005267076444298</t>
   </si>
   <si>
@@ -889,7 +886,7 @@
     <t>k.vasiliou@akfa-chem.com</t>
   </si>
   <si>
-    <t>GR5801721150005115099509791</t>
+    <t>GR6901722310005231098857966</t>
   </si>
   <si>
     <t>ΠΕΡΑΝ ΕΝΕΡΓΕΙΑΚΗ Μ.ΑΕ</t>
@@ -919,6 +916,9 @@
     <t>644PH80127</t>
   </si>
   <si>
+    <t>ΕΝΕΡΓΕΙΑΚΗ ΚΟΙΝΟΤΗΤΑ ΗΛΙΑΧΤΙΔΑ (ΑΛΩΝΙΑ)</t>
+  </si>
+  <si>
     <t>ΑΛΩΝΙΑ, Τ.Κ. ΚΑΡΥΑΣ</t>
   </si>
   <si>
@@ -928,13 +928,16 @@
     <t>644PH75331</t>
   </si>
   <si>
+    <t>ΕΝΕΡΓΕΙΑΚΗ ΚΟΙΝΟΤΗΤΑ ΗΛΙΑΧΤΙΔΑ (ΚΡΑΝΙΑ)</t>
+  </si>
+  <si>
     <t>ΚΡΑΝΙΑ, Τ.Κ. ΔΙΒΡΗΣ</t>
   </si>
   <si>
     <t>611PH80190</t>
   </si>
   <si>
-    <t>ΕΝΕΡΓΕΙΑΚΗ ΚΟΙΝΟΤΗΤΑ ΘΕΣΣΑΛΙΚΗ ΗΛΙΑΧΤΙΔΑ</t>
+    <t>ΕΝΕΡΓΕΙΑΚΗ ΚΟΙΝΟΤΗΤΑ ΘΕΣΣΑΛΙΚΗ ΗΛΙΑΧΤΙΔΑ (ΣΠΑΝΙΕΣ)</t>
   </si>
   <si>
     <t>ΣΠΑΝΙΕΣ, Τ.Κ. ΣΟΦΑΔΩΝ</t>
@@ -946,6 +949,9 @@
     <t>644PH73787</t>
   </si>
   <si>
+    <t>ΕΝΕΡΓΕΙΑΚΗ ΚΟΙΝΟΤΗΤΑ ΗΛΙΑΧΤΙΔΑ (ΑΛΛΑ ΧΩΡΑΦΙΑ)</t>
+  </si>
+  <si>
     <t>ΑΛΛΑ ΧΩΡΑΦΙΑ, Τ.Κ.ΔΙΒΡΗΣ</t>
   </si>
   <si>
@@ -994,10 +1000,363 @@
     <t>ΣΗΘΥΑ ΘΕΣΣΑΛΟΝΙΚΗΣ ΙΚΕ</t>
   </si>
   <si>
+    <t>ΑΓΡ 165 ΚΑΜΠΟΣ ΜΙΚΡΑΣ ΚΑΡΔΙΑΣ</t>
+  </si>
+  <si>
     <t>sithiathessalonikis@gmail.com</t>
   </si>
   <si>
     <t>GR0901722180005218115466112</t>
+  </si>
+  <si>
+    <t>522PH84425</t>
+  </si>
+  <si>
+    <t>E.T.B.A. ΒΙΟΜΗΧΑΝΙΚΕΣ ΠΕΡΙΟΧΕΣ Α.Ε.</t>
+  </si>
+  <si>
+    <t>ΚΕΦΟΔΕ ΑΤΤΙΚΗΣ</t>
+  </si>
+  <si>
+    <t>ΑΓΡΟΚΤΗΜΑ ΜΕΣΟΚΩΜΟΥ</t>
+  </si>
+  <si>
+    <t>t.diavatis@etvavipe.gr</t>
+  </si>
+  <si>
+    <t>GR3101720820005082019350317</t>
+  </si>
+  <si>
+    <t>641PH84136</t>
+  </si>
+  <si>
+    <t>Φ/Β ΠΑΡΚΟ ΜΟΔΙΟΥ ΜΟΝ ΑΕ (ΜΟΥΡΙΚΙ Α)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Θέση Τσιντσιλόνι Μουρίκι , Θήβα, 32200</t>
+    </r>
+  </si>
+  <si>
+    <t>invoices.greece@smart-energies.eu</t>
+  </si>
+  <si>
+    <t>GR7701728340005834114895047</t>
+  </si>
+  <si>
+    <t>Φ/Β ΠΑΡΚΟ ΜΟΔΙΟΥ ΜΟΝ ΑΕ</t>
+  </si>
+  <si>
+    <t>641PH84135</t>
+  </si>
+  <si>
+    <t>Φ/Β ΠΑΡΚΟ ΜΟΔΙΟΥ ΜΟΝ ΑΕ (THIVA A)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Παλαιά Σωτήρα, Θήβα, 32200</t>
+    </r>
+  </si>
+  <si>
+    <t>644PH81953</t>
+  </si>
+  <si>
+    <t>Φ/Β ΠΑΡΚΟ ΜΟΔΙΟΥ ΜΟΝ ΑΕ (ISOMA STEFANI)</t>
+  </si>
+  <si>
+    <t>Δουρδουνάνι Βάγια, Θήβα, Βοιωτία, 32002</t>
+  </si>
+  <si>
+    <t>641PH84137</t>
+  </si>
+  <si>
+    <t>Φ/Β ΠΑΡΚΟ ΜΟΔΙΟΥ ΜΟΝ ΑΕ (ΜΟΥΡΙΚΙ Β)</t>
+  </si>
+  <si>
+    <t>Θέση Χερόματα Μουρίκι, Θήβα, 32200</t>
+  </si>
+  <si>
+    <t>531PH72758</t>
+  </si>
+  <si>
+    <t>PONSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.(121)</t>
+  </si>
+  <si>
+    <t>Τ.Κ. ΛΙΒΕΡΩΝ, Δ.Ε. ΔΗΜΗΤΡΙΟΥ ΥΨΗΛΑΝΤΗ,
+ Δ. ΚΟΖΑΝΗΣ, Π.Ε. ΚΟΖΑΝΗΣ, ΠΕΡΙΦΕΡΕΙΑ Δ. ΜΑΚΕΔΟΝΙΑΣ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoices.greece@smart-energies.eu</t>
+    </r>
+  </si>
+  <si>
+    <t>GR1401102110000021100439070</t>
+  </si>
+  <si>
+    <t>PONSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.</t>
+  </si>
+  <si>
+    <t>531PH74143</t>
+  </si>
+  <si>
+    <t>PONSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.(126)</t>
+  </si>
+  <si>
+    <t>GR7101105070000050700105880</t>
+  </si>
+  <si>
+    <t>531PH74144</t>
+  </si>
+  <si>
+    <t>PONSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.(181)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Τ.Κ. ΛΙΒΕΡΩΝ, Δ.Ε. ΔΗΜΗΤΡΙΟΥ ΥΨΗΛΑΝΤΗ,
+ Δ. ΚΟΖΑΝΗΣ, Π.Ε. ΚΟΖΑΝΗΣ, ΠΕΡΙΦΕΡΕΙΑ Δ. ΜΑΚΕΔΟΝΙΑΣ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoices.greece@smart-energies.eu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 531PH72755</t>
+    </r>
+  </si>
+  <si>
+    <t>PONSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.(207)</t>
+  </si>
+  <si>
+    <t> Τ.Κ. ΛΙΒΕΡΩΝ, Δ.Ε. ΔΗΜΗΤΡΙΟΥ ΥΨΗΛΑΝΤΗ,
+ Δ. ΚΟΖΑΝΗΣ, Π.Ε. ΚΟΖΑΝΗΣ, ΠΕΡΙΦΕΡΕΙΑ Δ. ΜΑΚΕΔΟΝΙΑΣ</t>
+  </si>
+  <si>
+    <t>531PH72757</t>
+  </si>
+  <si>
+    <t>PONSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.(230)</t>
+  </si>
+  <si>
+    <t>Τ.Κ. ΛΙΒΕΡΩΝ, Δ.Ε. ΔΗΜΗΤΡΙΟΥ ΥΨΗΛΑΝΤΗ, 
+Δ. ΚΟΖΑΝΗΣ, Π.Ε. ΚΟΖΑΝΗΣ, ΠΕΡΙΦΕΡΕΙΑ Δ. ΜΑΚΕΔΟΝΙΑΣ</t>
+  </si>
+  <si>
+    <t>531PH72749</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (127)</t>
+  </si>
+  <si>
+    <t>GR0901102110000021100425871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.</t>
+  </si>
+  <si>
+    <t>531PH74150</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (142)</t>
+  </si>
+  <si>
+    <t>GR8101105070000050700106185</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>531PH74145</t>
+    </r>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (164)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>531PH74152</t>
+    </r>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (306)</t>
+  </si>
+  <si>
+    <t>531PH72729</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (168)</t>
+  </si>
+  <si>
+    <t>531PH74146</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (188)</t>
+  </si>
+  <si>
+    <t>531PH74147</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (198)</t>
+  </si>
+  <si>
+    <t>531PH74149</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (208)</t>
+  </si>
+  <si>
+    <t>531PH74148</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (210)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>531PH74151</t>
+    </r>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (226)</t>
+  </si>
+  <si>
+    <t>531PH72736</t>
+  </si>
+  <si>
+    <t>LIVERSOL ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε. (309)</t>
+  </si>
+  <si>
+    <t>641PH69952</t>
+  </si>
+  <si>
+    <t>Γ ΣΙΔΕΡΟΓΙΑΝΝΗΣ, ΜΟΝ ΙΚΕ</t>
+  </si>
+  <si>
+    <t>ΛΙΟΥΓΚΑ ΣΧΗΜΑΤΑΡΙ</t>
+  </si>
+  <si>
+    <t>gsiderogiannis@yahoo.gr</t>
+  </si>
+  <si>
+    <t>GR3801102720000027247024253</t>
+  </si>
+  <si>
+    <t>612PH69945</t>
+  </si>
+  <si>
+    <t>ΜΑΛΙΑΧΩΒΑΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</t>
+  </si>
+  <si>
+    <t>067903601</t>
+  </si>
+  <si>
+    <t>ΛΑΡΙΣΑΣ</t>
+  </si>
+  <si>
+    <t>ΑΓΡ.101 ΠΟΜΩΝΑ ή ΚΑΛΝΤΕΡΙΜΙ, Δ.Δ ΝΕΡΑΪΔΑΣ , Δ. ΦΑΡΣΑΛΩΝ,Π.Ε Λάρισας</t>
+  </si>
+  <si>
+    <t>kostasmal72@gmail.com</t>
+  </si>
+  <si>
+    <t>GR7901712530006253010193858</t>
+  </si>
+  <si>
+    <t>522SH69581</t>
+  </si>
+  <si>
+    <t>ΘΕΡΜΟΚΗΠΙΑ ΘΕΣΣΑΛΟΝΙΚΗΣ ΙΚΕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΑΓΡΟΤΕΜΑΧΙΟ 117 ΚΑΡΔΙΑΣ </t>
+  </si>
+  <si>
+    <t>thessalonikisthermokipia@gmail.com , servicegas68@gmail.com</t>
+  </si>
+  <si>
+    <t>GR0901722180005218117132572</t>
   </si>
 </sst>
 </file>
@@ -1014,12 +1373,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1031,14 +1384,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1069,13 +1414,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1087,41 +1451,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1130,31 +1490,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1492,20 +1848,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.375" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.25" customWidth="1"/>
+    <col min="6" max="6" width="54.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
@@ -1514,44 +1870,44 @@
     <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1562,7 +1918,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -1586,10 +1942,10 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M2">
@@ -1603,7 +1959,7 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1627,10 +1983,10 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M3">
@@ -1644,7 +2000,7 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
@@ -1659,7 +2015,7 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
@@ -1668,10 +2024,10 @@
       <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M4">
@@ -1685,7 +2041,7 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
@@ -1709,10 +2065,10 @@
       <c r="J5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M5">
@@ -1726,7 +2082,7 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
@@ -1750,8 +2106,8 @@
       <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M6">
@@ -1765,7 +2121,7 @@
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
@@ -1789,8 +2145,8 @@
       <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M7">
@@ -1804,7 +2160,7 @@
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>800772106</v>
       </c>
       <c r="D8" t="s">
@@ -1828,10 +2184,10 @@
       <c r="J8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M8">
@@ -1845,7 +2201,7 @@
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>800772106</v>
       </c>
       <c r="D9" t="s">
@@ -1869,8 +2225,8 @@
       <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M9">
@@ -1884,7 +2240,7 @@
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>802035060</v>
       </c>
       <c r="D10" t="s">
@@ -1899,7 +2255,7 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <v>26674</v>
       </c>
       <c r="I10" t="s">
@@ -1908,8 +2264,8 @@
       <c r="J10" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M10">
@@ -1923,7 +2279,7 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>996874576</v>
       </c>
       <c r="D11" t="s">
@@ -1947,10 +2303,10 @@
       <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M11">
@@ -1964,7 +2320,7 @@
       <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>996874576</v>
       </c>
       <c r="D12" t="s">
@@ -1988,8 +2344,8 @@
       <c r="J12" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M12">
@@ -2003,7 +2359,7 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>801172018</v>
       </c>
       <c r="D13" t="s">
@@ -2027,10 +2383,10 @@
       <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M13">
@@ -2044,7 +2400,7 @@
       <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>997946840</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2053,7 +2409,7 @@
       <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>92</v>
       </c>
       <c r="G14" t="s">
@@ -2068,10 +2424,10 @@
       <c r="J14" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="M14">
@@ -2085,7 +2441,7 @@
       <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>997946840</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2094,13 +2450,13 @@
       <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>25817</v>
       </c>
       <c r="I15" t="s">
@@ -2109,8 +2465,8 @@
       <c r="J15" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="4" t="s">
         <v>95</v>
       </c>
       <c r="M15">
@@ -2124,7 +2480,7 @@
       <c r="B16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>996850542</v>
       </c>
       <c r="D16" t="s">
@@ -2133,7 +2489,7 @@
       <c r="E16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>102</v>
       </c>
       <c r="G16" t="s">
@@ -2148,10 +2504,10 @@
       <c r="J16" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="M16">
@@ -2165,7 +2521,7 @@
       <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>996874804</v>
       </c>
       <c r="D17" t="s">
@@ -2174,7 +2530,7 @@
       <c r="E17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>102</v>
       </c>
       <c r="G17" t="s">
@@ -2189,10 +2545,10 @@
       <c r="J17" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M17">
@@ -2206,7 +2562,7 @@
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>996874804</v>
       </c>
       <c r="D18" t="s">
@@ -2215,7 +2571,7 @@
       <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>102</v>
       </c>
       <c r="G18" t="s">
@@ -2230,8 +2586,8 @@
       <c r="J18" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="6" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M18">
@@ -2245,7 +2601,7 @@
       <c r="B19" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>996874804</v>
       </c>
       <c r="D19" t="s">
@@ -2254,7 +2610,7 @@
       <c r="E19" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>102</v>
       </c>
       <c r="G19" t="s">
@@ -2269,8 +2625,8 @@
       <c r="J19" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="19"/>
+      <c r="L19" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M19">
@@ -2284,7 +2640,7 @@
       <c r="B20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>996874804</v>
       </c>
       <c r="D20" t="s">
@@ -2293,7 +2649,7 @@
       <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
       <c r="G20" t="s">
@@ -2308,8 +2664,8 @@
       <c r="J20" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="19"/>
+      <c r="L20" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M20">
@@ -2323,7 +2679,7 @@
       <c r="B21" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>996874804</v>
       </c>
       <c r="D21" t="s">
@@ -2332,7 +2688,7 @@
       <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>102</v>
       </c>
       <c r="G21" t="s">
@@ -2347,8 +2703,8 @@
       <c r="J21" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="19"/>
+      <c r="L21" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M21">
@@ -2362,7 +2718,7 @@
       <c r="B22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>996874804</v>
       </c>
       <c r="D22" t="s">
@@ -2371,7 +2727,7 @@
       <c r="E22" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22" t="s">
@@ -2386,8 +2742,8 @@
       <c r="J22" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="19"/>
+      <c r="L22" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M22">
@@ -2401,7 +2757,7 @@
       <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>996874804</v>
       </c>
       <c r="D23" t="s">
@@ -2410,7 +2766,7 @@
       <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>102</v>
       </c>
       <c r="G23" t="s">
@@ -2425,8 +2781,8 @@
       <c r="J23" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="19"/>
+      <c r="L23" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M23">
@@ -2440,7 +2796,7 @@
       <c r="B24" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>996874804</v>
       </c>
       <c r="D24" t="s">
@@ -2449,7 +2805,7 @@
       <c r="E24" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>102</v>
       </c>
       <c r="G24" t="s">
@@ -2464,8 +2820,8 @@
       <c r="J24" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="19"/>
+      <c r="L24" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M24">
@@ -2479,7 +2835,7 @@
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>996874804</v>
       </c>
       <c r="D25" t="s">
@@ -2488,7 +2844,7 @@
       <c r="E25" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>102</v>
       </c>
       <c r="G25" t="s">
@@ -2503,8 +2859,8 @@
       <c r="J25" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="19"/>
+      <c r="L25" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M25">
@@ -2518,7 +2874,7 @@
       <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>996874804</v>
       </c>
       <c r="D26" t="s">
@@ -2527,7 +2883,7 @@
       <c r="E26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>102</v>
       </c>
       <c r="G26" t="s">
@@ -2542,8 +2898,8 @@
       <c r="J26" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="19"/>
+      <c r="L26" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M26">
@@ -2557,7 +2913,7 @@
       <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>996874804</v>
       </c>
       <c r="D27" t="s">
@@ -2566,7 +2922,7 @@
       <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>102</v>
       </c>
       <c r="G27" t="s">
@@ -2581,8 +2937,8 @@
       <c r="J27" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M27">
@@ -2596,7 +2952,7 @@
       <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>996874804</v>
       </c>
       <c r="D28" t="s">
@@ -2605,7 +2961,7 @@
       <c r="E28" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>102</v>
       </c>
       <c r="G28" t="s">
@@ -2620,8 +2976,8 @@
       <c r="J28" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="19"/>
+      <c r="L28" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M28">
@@ -2635,7 +2991,7 @@
       <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>996874804</v>
       </c>
       <c r="D29" t="s">
@@ -2644,13 +3000,13 @@
       <c r="E29" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>102</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>26127</v>
       </c>
       <c r="I29" t="s">
@@ -2659,8 +3015,8 @@
       <c r="J29" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="19"/>
+      <c r="L29" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M29">
@@ -2674,7 +3030,7 @@
       <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>801543055</v>
       </c>
       <c r="D30" t="s">
@@ -2683,13 +3039,13 @@
       <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>142</v>
       </c>
       <c r="G30" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>24611</v>
       </c>
       <c r="I30" t="s">
@@ -2698,10 +3054,10 @@
       <c r="J30" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>146</v>
       </c>
       <c r="M30">
@@ -2715,7 +3071,7 @@
       <c r="B31" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D31" t="s">
@@ -2739,10 +3095,10 @@
       <c r="J31" t="s">
         <v>156</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>158</v>
       </c>
       <c r="M31">
@@ -2756,7 +3112,7 @@
       <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D32" t="s">
@@ -2765,7 +3121,7 @@
       <c r="E32" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>163</v>
       </c>
       <c r="G32" t="s">
@@ -2780,10 +3136,10 @@
       <c r="J32" t="s">
         <v>164</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="3" t="s">
         <v>160</v>
       </c>
       <c r="M32">
@@ -2797,7 +3153,7 @@
       <c r="B33" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D33" t="s">
@@ -2835,10 +3191,10 @@
       <c r="A34" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>173</v>
       </c>
       <c r="D34" t="s">
@@ -2847,7 +3203,7 @@
       <c r="E34" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" t="s">
         <v>176</v>
       </c>
       <c r="G34" t="s">
@@ -2862,10 +3218,10 @@
       <c r="J34" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>179</v>
       </c>
       <c r="M34">
@@ -2876,10 +3232,10 @@
       <c r="A35" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>182</v>
       </c>
       <c r="D35" t="s">
@@ -2888,7 +3244,7 @@
       <c r="E35" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" t="s">
         <v>184</v>
       </c>
       <c r="G35" t="s">
@@ -2903,10 +3259,10 @@
       <c r="J35" t="s">
         <v>185</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>186</v>
       </c>
       <c r="M35">
@@ -2920,7 +3276,7 @@
       <c r="B36" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D36" t="s">
@@ -2929,7 +3285,7 @@
       <c r="E36" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" t="s">
         <v>191</v>
       </c>
       <c r="G36" t="s">
@@ -2947,7 +3303,7 @@
       <c r="K36" t="s">
         <v>188</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M36">
@@ -2961,7 +3317,7 @@
       <c r="B37" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>802667720</v>
       </c>
       <c r="D37" t="s">
@@ -2970,7 +3326,7 @@
       <c r="E37" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" t="s">
         <v>199</v>
       </c>
       <c r="G37" t="s">
@@ -2985,10 +3341,10 @@
       <c r="J37" t="s">
         <v>201</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>203</v>
       </c>
       <c r="M37">
@@ -3002,7 +3358,7 @@
       <c r="B38" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>206</v>
       </c>
       <c r="D38" t="s">
@@ -3011,7 +3367,7 @@
       <c r="E38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" t="s">
         <v>209</v>
       </c>
       <c r="G38" t="s">
@@ -3020,7 +3376,7 @@
       <c r="H38" s="1">
         <v>29555</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="15">
         <v>0.25</v>
       </c>
       <c r="J38" t="s">
@@ -3043,7 +3399,7 @@
       <c r="B39" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>215</v>
       </c>
       <c r="D39" t="s">
@@ -3052,23 +3408,26 @@
       <c r="E39" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" t="s">
         <v>217</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1">
+        <v>29772</v>
+      </c>
+      <c r="I39" s="15">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
         <v>218</v>
-      </c>
-      <c r="J39" t="s">
-        <v>219</v>
       </c>
       <c r="K39" t="s">
         <v>214</v>
       </c>
       <c r="L39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -3076,22 +3435,22 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
         <v>221</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" t="s">
         <v>223</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>224</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>225</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="G40" t="s">
         <v>200</v>
@@ -3099,17 +3458,17 @@
       <c r="H40" s="1">
         <v>29468</v>
       </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="16" t="s">
+      <c r="I40" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" t="s">
         <v>227</v>
       </c>
-      <c r="K40" t="s">
-        <v>228</v>
-      </c>
       <c r="L40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3117,40 +3476,40 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
         <v>229</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
         <v>231</v>
       </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>232</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="G41" t="s">
         <v>200</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>29804</v>
       </c>
-      <c r="I41" t="s">
-        <v>21</v>
+      <c r="I41" s="15">
+        <v>0.25</v>
       </c>
       <c r="J41" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" t="s">
         <v>234</v>
       </c>
-      <c r="K41" t="s">
-        <v>235</v>
-      </c>
       <c r="L41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3158,22 +3517,22 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
         <v>236</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>237</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>238</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>239</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>240</v>
-      </c>
-      <c r="F42" t="s">
-        <v>241</v>
       </c>
       <c r="G42" t="s">
         <v>200</v>
@@ -3181,17 +3540,17 @@
       <c r="H42" s="1">
         <v>25826</v>
       </c>
-      <c r="I42" t="s">
-        <v>21</v>
+      <c r="I42" s="15">
+        <v>0.25</v>
       </c>
       <c r="J42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" t="s">
         <v>242</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>243</v>
-      </c>
-      <c r="L42" t="s">
-        <v>244</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3199,22 +3558,22 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
         <v>249</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>19</v>
@@ -3222,17 +3581,17 @@
       <c r="H43" s="1">
         <v>19176</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="15">
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K43" t="s">
         <v>251</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>252</v>
-      </c>
-      <c r="L43" t="s">
-        <v>253</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3240,22 +3599,22 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>250</v>
+      <c r="F44" t="s">
+        <v>249</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
@@ -3263,17 +3622,17 @@
       <c r="H44" s="1">
         <v>19177</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="15">
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K44" t="s">
         <v>251</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>252</v>
-      </c>
-      <c r="L44" t="s">
-        <v>253</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3281,37 +3640,40 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
         <v>257</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" t="s">
         <v>259</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>260</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>261</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1">
+        <v>29536</v>
+      </c>
+      <c r="I45" s="15">
+        <v>20.83</v>
+      </c>
+      <c r="J45" t="s">
         <v>262</v>
       </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>263</v>
       </c>
-      <c r="K45" t="s">
-        <v>264</v>
-      </c>
       <c r="L45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -3319,37 +3681,40 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
         <v>265</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
         <v>267</v>
       </c>
-      <c r="D46" t="s">
-        <v>260</v>
-      </c>
-      <c r="E46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1">
+        <v>29538</v>
+      </c>
+      <c r="I46" s="15">
+        <v>20.83</v>
+      </c>
+      <c r="J46" t="s">
         <v>268</v>
       </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="s">
-        <v>218</v>
-      </c>
-      <c r="J46" t="s">
-        <v>269</v>
-      </c>
       <c r="K46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -3357,37 +3722,40 @@
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" t="s">
         <v>270</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="D47" t="s">
         <v>174</v>
       </c>
       <c r="E47" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" t="s">
         <v>273</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1">
+        <v>29654</v>
+      </c>
+      <c r="I47" s="15">
+        <v>41.66</v>
+      </c>
+      <c r="J47" t="s">
         <v>274</v>
       </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>275</v>
       </c>
-      <c r="K47" t="s">
-        <v>276</v>
-      </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -3395,22 +3763,22 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
         <v>277</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" t="s">
         <v>279</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>280</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>281</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>19</v>
@@ -3418,17 +3786,17 @@
       <c r="H48" s="1">
         <v>28558</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="15">
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3438,42 +3806,42 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1">
+    <row r="49" spans="1:22" ht="15.75" customHeight="1">
       <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" t="s">
         <v>286</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="6">
+        <v>800880836</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
         <v>287</v>
       </c>
-      <c r="C49">
-        <v>800880836</v>
-      </c>
-      <c r="D49" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>288</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="H49" s="1">
         <v>17672</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="15">
         <v>0.25</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3483,14 +3851,14 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+    <row r="50" spans="1:22" ht="15.75" customHeight="1">
       <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" t="s">
         <v>292</v>
       </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>996874804</v>
       </c>
       <c r="D50" t="s">
@@ -3499,7 +3867,7 @@
       <c r="E50" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" t="s">
         <v>294</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3508,13 +3876,13 @@
       <c r="H50" s="1">
         <v>19873</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="15">
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="17" t="s">
         <v>110</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -3528,23 +3896,23 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+    <row r="51" spans="1:22" ht="15.75" customHeight="1">
       <c r="A51" t="s">
         <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51">
+        <v>296</v>
+      </c>
+      <c r="C51" s="6">
         <v>996874804</v>
       </c>
       <c r="D51" t="s">
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
-      </c>
-      <c r="F51" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" t="s">
         <v>294</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3553,13 +3921,13 @@
       <c r="H51" s="1">
         <v>24669</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="15">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K51" s="21"/>
+      <c r="K51" s="17"/>
       <c r="L51" s="1" t="s">
         <v>105</v>
       </c>
@@ -3571,23 +3939,23 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+    <row r="52" spans="1:22" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C52">
+        <v>299</v>
+      </c>
+      <c r="C52" s="6">
         <v>996850542</v>
       </c>
       <c r="D52" t="s">
         <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" t="s">
         <v>294</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3596,11 +3964,11 @@
       <c r="H52" s="1">
         <v>19810</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="15">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>104</v>
@@ -3616,23 +3984,23 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1">
+    <row r="53" spans="1:22" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53">
+        <v>303</v>
+      </c>
+      <c r="C53" s="6">
         <v>996874804</v>
       </c>
       <c r="D53" t="s">
         <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
-      </c>
-      <c r="F53" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53" t="s">
         <v>294</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3641,7 +4009,7 @@
       <c r="H53" s="1">
         <v>26213</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="15">
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -3661,42 +4029,42 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1">
+    <row r="54" spans="1:22" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54">
+        <v>306</v>
+      </c>
+      <c r="C54" s="6">
         <v>802574970</v>
       </c>
       <c r="D54" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s">
         <v>200</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>29972</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="15">
         <v>0.25</v>
       </c>
       <c r="J54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3705,87 +4073,1169 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1">
+    <row r="55" spans="1:22" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
-      </c>
-      <c r="C55">
+        <v>313</v>
+      </c>
+      <c r="C55" s="6">
         <v>802256421</v>
       </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G55" t="s">
         <v>200</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>26694</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="15">
         <v>0.25</v>
       </c>
       <c r="J55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K55" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1">
+    <row r="56" spans="1:22" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B56" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56">
+        <v>319</v>
+      </c>
+      <c r="C56" s="6">
         <v>802583991</v>
       </c>
       <c r="D56" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G56" t="s">
         <v>200</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>28900</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="15">
         <v>0.25</v>
       </c>
       <c r="J56" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" t="s">
         <v>319</v>
       </c>
-      <c r="K56" t="s">
-        <v>317</v>
-      </c>
       <c r="L56" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="6">
+        <v>999505936</v>
+      </c>
+      <c r="D57" t="s">
+        <v>325</v>
+      </c>
+      <c r="E57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1">
+        <v>15575</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57" t="s">
+        <v>324</v>
+      </c>
+      <c r="L57" t="s">
+        <v>324</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="6">
+        <v>800067024</v>
+      </c>
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1">
+        <v>15864</v>
+      </c>
+      <c r="I58" s="15">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" t="s">
+        <v>334</v>
+      </c>
+      <c r="L58" t="s">
+        <v>334</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="V58" s="15"/>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="6">
+        <v>800067024</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" t="s">
+        <v>337</v>
+      </c>
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>15865</v>
+      </c>
+      <c r="I59" s="15">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>333</v>
+      </c>
+      <c r="K59" t="s">
+        <v>334</v>
+      </c>
+      <c r="L59" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="V59" s="15"/>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="6">
+        <v>800067024</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>340</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1">
+        <v>18047</v>
+      </c>
+      <c r="I60" s="15">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>333</v>
+      </c>
+      <c r="K60" t="s">
+        <v>334</v>
+      </c>
+      <c r="L60" t="s">
+        <v>334</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="V60" s="15"/>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" t="s">
+        <v>342</v>
+      </c>
+      <c r="C61" s="6">
+        <v>800067024</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F61" t="s">
+        <v>332</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1">
+        <v>15863</v>
+      </c>
+      <c r="I61" s="15">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>333</v>
+      </c>
+      <c r="K61" t="s">
+        <v>334</v>
+      </c>
+      <c r="L61" t="s">
+        <v>334</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="V61" s="15"/>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" s="6">
+        <v>801089862</v>
+      </c>
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" t="s">
+        <v>346</v>
+      </c>
+      <c r="F62" t="s">
+        <v>347</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="16">
+        <v>27242</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>348</v>
+      </c>
+      <c r="K62" t="s">
+        <v>349</v>
+      </c>
+      <c r="L62" t="s">
+        <v>349</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="V62" s="15"/>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="6">
+        <v>801089862</v>
+      </c>
+      <c r="D63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" t="s">
+        <v>346</v>
+      </c>
+      <c r="F63" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="16">
+        <v>25857</v>
+      </c>
+      <c r="I63" s="15">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" t="s">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s">
+        <v>349</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15"/>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" t="s">
+        <v>354</v>
+      </c>
+      <c r="C64" s="6">
+        <v>801089862</v>
+      </c>
+      <c r="D64" t="s">
+        <v>325</v>
+      </c>
+      <c r="E64" t="s">
+        <v>355</v>
+      </c>
+      <c r="F64" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="16">
+        <v>25856</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>352</v>
+      </c>
+      <c r="K64" t="s">
+        <v>349</v>
+      </c>
+      <c r="L64" t="s">
+        <v>349</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="V64" s="15"/>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A65" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="6">
+        <v>801089862</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" t="s">
+        <v>359</v>
+      </c>
+      <c r="F65" t="s">
+        <v>356</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="16">
+        <v>27245</v>
+      </c>
+      <c r="I65" s="15">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>348</v>
+      </c>
+      <c r="K65" t="s">
+        <v>349</v>
+      </c>
+      <c r="L65" t="s">
+        <v>349</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="V65" s="15"/>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="6">
+        <v>801089862</v>
+      </c>
+      <c r="D66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" t="s">
+        <v>362</v>
+      </c>
+      <c r="F66" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="16">
+        <v>27243</v>
+      </c>
+      <c r="I66" s="15">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>348</v>
+      </c>
+      <c r="K66" t="s">
+        <v>349</v>
+      </c>
+      <c r="L66" t="s">
+        <v>349</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="V66" s="15"/>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C67" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D67" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" t="s">
+        <v>362</v>
+      </c>
+      <c r="F67" t="s">
+        <v>332</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="16">
+        <v>27251</v>
+      </c>
+      <c r="I67" s="15">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>365</v>
+      </c>
+      <c r="K67" t="s">
+        <v>366</v>
+      </c>
+      <c r="L67" t="s">
+        <v>366</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="V67" s="15"/>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C68" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D68" t="s">
+        <v>325</v>
+      </c>
+      <c r="E68" t="s">
+        <v>362</v>
+      </c>
+      <c r="F68" t="s">
+        <v>332</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="16">
+        <v>25850</v>
+      </c>
+      <c r="I68" s="15">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>369</v>
+      </c>
+      <c r="K68" t="s">
+        <v>366</v>
+      </c>
+      <c r="L68" t="s">
+        <v>366</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15"/>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D69" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" t="s">
+        <v>362</v>
+      </c>
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="16">
+        <v>25855</v>
+      </c>
+      <c r="I69" s="15">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>369</v>
+      </c>
+      <c r="K69" t="s">
+        <v>366</v>
+      </c>
+      <c r="L69" t="s">
+        <v>366</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="V69" s="15"/>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>372</v>
+      </c>
+      <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D70" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" t="s">
+        <v>362</v>
+      </c>
+      <c r="F70" t="s">
+        <v>332</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="16">
+        <v>25848</v>
+      </c>
+      <c r="I70" s="15">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>369</v>
+      </c>
+      <c r="K70" t="s">
+        <v>366</v>
+      </c>
+      <c r="L70" t="s">
+        <v>366</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="V70" s="15"/>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="16">
+        <v>27271</v>
+      </c>
+      <c r="I71" s="15">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>365</v>
+      </c>
+      <c r="K71" t="s">
+        <v>366</v>
+      </c>
+      <c r="L71" t="s">
+        <v>366</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="V71" s="15"/>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C72" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" t="s">
+        <v>332</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="16">
+        <v>25854</v>
+      </c>
+      <c r="I72" s="15">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>369</v>
+      </c>
+      <c r="K72" t="s">
+        <v>366</v>
+      </c>
+      <c r="L72" t="s">
+        <v>366</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="V72" s="15"/>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" t="s">
+        <v>379</v>
+      </c>
+      <c r="C73" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>325</v>
+      </c>
+      <c r="E73" t="s">
+        <v>362</v>
+      </c>
+      <c r="F73" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="16">
+        <v>25853</v>
+      </c>
+      <c r="I73" s="15">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>369</v>
+      </c>
+      <c r="K73" t="s">
+        <v>366</v>
+      </c>
+      <c r="L73" t="s">
+        <v>366</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="V73" s="15"/>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="16">
+        <v>25851</v>
+      </c>
+      <c r="I74" s="15">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>369</v>
+      </c>
+      <c r="K74" t="s">
+        <v>366</v>
+      </c>
+      <c r="L74" t="s">
+        <v>366</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="V74" s="15"/>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E75" t="s">
+        <v>362</v>
+      </c>
+      <c r="F75" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="16">
+        <v>25852</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>369</v>
+      </c>
+      <c r="K75" t="s">
+        <v>366</v>
+      </c>
+      <c r="L75" t="s">
+        <v>366</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="V75" s="15"/>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>325</v>
+      </c>
+      <c r="E76" t="s">
+        <v>362</v>
+      </c>
+      <c r="F76" t="s">
+        <v>332</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="16">
+        <v>25849</v>
+      </c>
+      <c r="I76" s="15">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>369</v>
+      </c>
+      <c r="K76" t="s">
+        <v>366</v>
+      </c>
+      <c r="L76" t="s">
+        <v>366</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="V76" s="15"/>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="6">
+        <v>801067199</v>
+      </c>
+      <c r="D77" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" t="s">
+        <v>362</v>
+      </c>
+      <c r="F77" t="s">
+        <v>332</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="16">
+        <v>27264</v>
+      </c>
+      <c r="I77" s="15">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>365</v>
+      </c>
+      <c r="K77" t="s">
+        <v>366</v>
+      </c>
+      <c r="L77" t="s">
+        <v>366</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="V77" s="15"/>
+    </row>
+    <row r="78" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" s="6">
+        <v>800511601</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" t="s">
+        <v>391</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="16">
+        <v>30048</v>
+      </c>
+      <c r="I78" s="15">
+        <v>29.16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>392</v>
+      </c>
+      <c r="K78" t="s">
+        <v>389</v>
+      </c>
+      <c r="L78" t="s">
+        <v>389</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="V78" s="15"/>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>393</v>
+      </c>
+      <c r="B79" t="s">
+        <v>394</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" t="s">
+        <v>397</v>
+      </c>
+      <c r="F79" t="s">
+        <v>398</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="16">
+        <v>30055</v>
+      </c>
+      <c r="I79" s="15">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>399</v>
+      </c>
+      <c r="K79" t="s">
+        <v>394</v>
+      </c>
+      <c r="L79" t="s">
+        <v>394</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="V79" s="15"/>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>400</v>
+      </c>
+      <c r="B80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="6">
+        <v>802676151</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>402</v>
+      </c>
+      <c r="F80" t="s">
+        <v>403</v>
+      </c>
+      <c r="G80" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" s="16">
+        <v>30419</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>404</v>
+      </c>
+      <c r="K80" t="s">
+        <v>401</v>
+      </c>
+      <c r="L80" t="s">
+        <v>401</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="V80" s="15"/>
+    </row>
+    <row r="81" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C81"/>
+      <c r="I81" s="15"/>
+      <c r="V81" s="15"/>
+    </row>
+    <row r="82" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C82"/>
+      <c r="I82" s="15"/>
+      <c r="V82" s="15"/>
+    </row>
+    <row r="83" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C83"/>
+      <c r="I83" s="15"/>
+      <c r="V83" s="15"/>
+    </row>
+    <row r="84" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C84"/>
+      <c r="I84" s="15"/>
+      <c r="V84" s="15"/>
+    </row>
+    <row r="85" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C85"/>
+      <c r="I85" s="15"/>
+      <c r="V85" s="15"/>
+    </row>
+    <row r="86" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C86"/>
+      <c r="I86" s="15"/>
+      <c r="V86" s="15"/>
+    </row>
+    <row r="87" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C87"/>
+      <c r="I87" s="15"/>
+      <c r="V87" s="15"/>
+    </row>
+    <row r="88" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C88"/>
+      <c r="I88" s="15"/>
+      <c r="V88" s="15"/>
+    </row>
+    <row r="89" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C89"/>
+      <c r="I89" s="15"/>
+      <c r="V89" s="15"/>
+    </row>
+    <row r="90" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C90"/>
+      <c r="I90" s="15"/>
+      <c r="V90" s="15"/>
+    </row>
+    <row r="91" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C91"/>
+      <c r="I91" s="15"/>
+      <c r="V91" s="15"/>
+    </row>
+    <row r="92" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C92"/>
+      <c r="I92" s="15"/>
+      <c r="V92" s="15"/>
+    </row>
+    <row r="93" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C93"/>
+      <c r="I93" s="15"/>
+      <c r="V93" s="15"/>
+    </row>
+    <row r="94" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C94"/>
+      <c r="I94" s="15"/>
+      <c r="V94" s="15"/>
+    </row>
+    <row r="95" spans="3:22" ht="15.75" customHeight="1">
+      <c r="C95"/>
+      <c r="I95" s="15"/>
+      <c r="V95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3796,7 +5246,7 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="K17:K29"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{0511BCA0-9581-4110-9465-60993892190A}"/>
     <hyperlink ref="F37" r:id="rId2" xr:uid="{B993D97B-5307-4713-BC9F-AC1D48B289F2}"/>
@@ -3823,6 +5273,9 @@
     <hyperlink ref="F53" r:id="rId23" xr:uid="{9846AB50-4FD5-498A-A5E9-83A348F43257}"/>
     <hyperlink ref="F56" r:id="rId24" xr:uid="{A11736C9-7C3F-43AD-AFBA-516AF9FF9BB5}"/>
     <hyperlink ref="F55" r:id="rId25" xr:uid="{891CB52B-404A-47D0-83F6-F2D82EBD56AE}"/>
+    <hyperlink ref="F57" r:id="rId26" xr:uid="{BE7E3708-4A6E-4858-9AF8-5D3401A190E0}"/>
+    <hyperlink ref="F78" r:id="rId27" xr:uid="{6FB6E71A-267C-449E-A7E4-6E858C1A6C59}"/>
+    <hyperlink ref="F80" r:id="rId28" xr:uid="{61B399A3-4D5A-4ABC-A099-6DDD8E948F2B}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
